--- a/events/ukr-events.xlsx
+++ b/events/ukr-events.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Sync\start\start-ukr-rus\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFA3393-D2A6-4ECA-909D-60002B5140EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633EEF1F-4507-4E6D-99AD-AFBE2C20895C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="28800" windowHeight="15345" xr2:uid="{A50A202F-0FC3-4522-8F72-0B317E922537}"/>
+    <workbookView xWindow="12645" yWindow="3915" windowWidth="28800" windowHeight="15345" xr2:uid="{A50A202F-0FC3-4522-8F72-0B317E922537}"/>
   </bookViews>
   <sheets>
-    <sheet name="events" sheetId="1" r:id="rId1"/>
+    <sheet name="battles" sheetId="1" r:id="rId1"/>
+    <sheet name="civilians" sheetId="2" r:id="rId2"/>
+    <sheet name="international" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +36,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={621CFEE0-D3A5-4E5E-A8B2-C4C04A89B0EF}</author>
+    <author>tc={61C59BE7-7C1F-460F-ACEA-1BD123B0D46A}</author>
+    <author>tc={6134C2F5-BA25-4B2F-AC14-563865DE21F3}</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{621CFEE0-D3A5-4E5E-A8B2-C4C04A89B0EF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    is the target of significant symbolic/cultural. yes-1 no-1;</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{61C59BE7-7C1F-460F-ACEA-1BD123B0D46A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    types include: shopping, schools, heatlhcare, transportation, religious/cultural, direct execution, business centers</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="2" shapeId="0" xr:uid="{6134C2F5-BA25-4B2F-AC14-563865DE21F3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    involves areas associated with clear presence of children (eg. schools, maternity hospital); yes-1 no-0</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F7D98679-909C-41C0-A370-E6B24F27D30E}</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F7D98679-909C-41C0-A370-E6B24F27D30E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    issues that are the subject of the event: political (governance assistance), non-coercive diplomatic (treaties, agreements), military coercive or defensive (weapons sales, attack, buildup), coercive economic (eg. sanctions)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="143">
   <si>
     <t>start</t>
   </si>
@@ -125,29 +181,354 @@
     <t>symbolic (morale boost to Ukr. Army)</t>
   </si>
   <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>civiliandeath</t>
+  </si>
+  <si>
+    <t>targettype</t>
+  </si>
+  <si>
+    <t>targetsym</t>
+  </si>
+  <si>
+    <t>Kremenchuk mall attack</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>psycholg</t>
+  </si>
+  <si>
+    <t>southeast</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Mariupol materinity hospital attack</t>
+  </si>
+  <si>
+    <t>Kramatorks train station attack</t>
+  </si>
+  <si>
+    <t>transportat</t>
+  </si>
+  <si>
+    <t>Mykolaiv children's hospital</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>Svyatohirsk Lavra monastery attack</t>
+  </si>
+  <si>
+    <t>relig/cult</t>
+  </si>
+  <si>
+    <t>Lozova's Palace of Culture attack</t>
+  </si>
+  <si>
+    <t>execution</t>
+  </si>
+  <si>
+    <t>Bilohorivka school  attack</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>Mariupol theater bombing</t>
+  </si>
+  <si>
+    <t>Merefa school/community center attack</t>
+  </si>
+  <si>
+    <t>Peremoha post office massacle</t>
+  </si>
+  <si>
+    <t>Bucha massacre</t>
+  </si>
+  <si>
+    <t>Vinnytysia business center attack</t>
+  </si>
+  <si>
+    <t>businesscntr</t>
+  </si>
+  <si>
+    <t>Skovoroda musuem attack</t>
+  </si>
+  <si>
+    <t>Chernikiv attack on bread queue</t>
+  </si>
+  <si>
+    <t>northern</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>diplomatic</t>
+  </si>
+  <si>
+    <t>Military aid to Ukraine</t>
+  </si>
+  <si>
+    <t>Sanctions imposed on Russia (banks)</t>
+  </si>
+  <si>
+    <t>Invitation to join NATO</t>
+  </si>
+  <si>
+    <t>U.S./Ukraine</t>
+  </si>
+  <si>
+    <t>US/EU/
+Canad/UK/Russia</t>
+  </si>
+  <si>
+    <t>NATO/Fin/Sweden</t>
+  </si>
+  <si>
+    <t>Pol/Bulg/Russ</t>
+  </si>
+  <si>
+    <t>Germany halts pipeline</t>
+  </si>
+  <si>
+    <t>Germany/Russ</t>
+  </si>
+  <si>
+    <t>EU/Moldova/Ukr</t>
+  </si>
+  <si>
+    <t>U.S. ban on Russian oil</t>
+  </si>
+  <si>
+    <t>US/Russia</t>
+  </si>
+  <si>
+    <t>Germany announce plan to ban oil imports from Russia</t>
+  </si>
+  <si>
+    <t>Ceasefire talks begin</t>
+  </si>
+  <si>
+    <t>Turkey/Ukr/Russ</t>
+  </si>
+  <si>
+    <t>US/Poland</t>
+  </si>
+  <si>
+    <t>U.S. Announces permanant military base in Poland</t>
+  </si>
+  <si>
+    <t>Military aid to Ukraine including missile systems</t>
+  </si>
+  <si>
+    <t>US/Ukr</t>
+  </si>
+  <si>
+    <t>EU announces marco-financial assistance to Ukraine</t>
+  </si>
+  <si>
+    <t>EU/Ukr</t>
+  </si>
+  <si>
+    <t>political</t>
+  </si>
+  <si>
+    <t>NATO announces military buildup</t>
+  </si>
+  <si>
+    <t>NATO</t>
+  </si>
+  <si>
     <t>event</t>
   </si>
   <si>
+    <t>actors</t>
+  </si>
+  <si>
+    <t>issue_type</t>
+  </si>
+  <si>
+    <t>kherson</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>kharkiv</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>kyiv_kiev</t>
+  </si>
+  <si>
+    <t>mariupol</t>
+  </si>
+  <si>
+    <t>melitopol</t>
+  </si>
+  <si>
+    <t>sievierodonetsk_lysychansk</t>
+  </si>
+  <si>
+    <t>chernihiv</t>
+  </si>
+  <si>
+    <t>lysychansk</t>
+  </si>
+  <si>
+    <t>donets</t>
+  </si>
+  <si>
+    <t>event_id</t>
+  </si>
+  <si>
+    <t>twitter_search_name</t>
+  </si>
+  <si>
+    <t>victor</t>
+  </si>
+  <si>
     <t>long_term</t>
   </si>
   <si>
-    <t>victor</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>search_terms</t>
+    <t>b01</t>
+  </si>
+  <si>
+    <t>b02</t>
+  </si>
+  <si>
+    <t>b03</t>
+  </si>
+  <si>
+    <t>b04</t>
+  </si>
+  <si>
+    <t>b05</t>
+  </si>
+  <si>
+    <t>b06</t>
+  </si>
+  <si>
+    <t>b07</t>
+  </si>
+  <si>
+    <t>b08</t>
+  </si>
+  <si>
+    <t>b09</t>
+  </si>
+  <si>
+    <t>civ01</t>
+  </si>
+  <si>
+    <t>civ02</t>
+  </si>
+  <si>
+    <t>civ03</t>
+  </si>
+  <si>
+    <t>civ04</t>
+  </si>
+  <si>
+    <t>civ05</t>
+  </si>
+  <si>
+    <t>civ06</t>
+  </si>
+  <si>
+    <t>civ07</t>
+  </si>
+  <si>
+    <t>civ08</t>
+  </si>
+  <si>
+    <t>civ09</t>
+  </si>
+  <si>
+    <t>civ10</t>
+  </si>
+  <si>
+    <t>civ11</t>
+  </si>
+  <si>
+    <t>civ12</t>
+  </si>
+  <si>
+    <t>civ13</t>
+  </si>
+  <si>
+    <t>civ14</t>
+  </si>
+  <si>
+    <t>int01</t>
+  </si>
+  <si>
+    <t>int02</t>
+  </si>
+  <si>
+    <t>int03</t>
+  </si>
+  <si>
+    <t>int04</t>
+  </si>
+  <si>
+    <t>int05</t>
+  </si>
+  <si>
+    <t>int06</t>
+  </si>
+  <si>
+    <t>int07</t>
+  </si>
+  <si>
+    <t>int08</t>
+  </si>
+  <si>
+    <t>int09</t>
+  </si>
+  <si>
+    <t>int10</t>
+  </si>
+  <si>
+    <t>int11</t>
+  </si>
+  <si>
+    <t>int12</t>
+  </si>
+  <si>
+    <t>int13</t>
+  </si>
+  <si>
+    <t>EU announces candidate status to Moldova/Ukraine</t>
+  </si>
+  <si>
+    <t>Russia halts gas supply to Poland and Bulgaria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +538,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3A3A3A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,20 +569,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -207,6 +643,67 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Elizabeth Radziszewski" id="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" userId="S::eradzisz@umd.edu::c9ed17f0-08d8-474a-9049-2077ddf36a9e" providerId="AD"/>
+</personList>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2A5DE2E-43BD-4601-AEAD-3ED6C0103664}" name="Table3" displayName="Table3" ref="A1:I10" totalsRowShown="0">
+  <autoFilter ref="A1:I10" xr:uid="{F2A5DE2E-43BD-4601-AEAD-3ED6C0103664}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{EAC9E920-2422-44B9-AC31-76AF0BE80A5E}" name="event_id"/>
+    <tableColumn id="2" xr3:uid="{42E8934A-9419-45D5-BFCD-CC2DCB0AEA0D}" name="event" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{20A1F777-84D4-4FD3-84B9-D5EB3C5ED8F0}" name="twitter_search_name" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{826DCC08-31DC-46D2-9186-088C93D9BE2B}" name="start" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{020A6BF6-313D-421C-B3C4-17DEFEE8916E}" name="end" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{2AB33A6D-48F3-41E1-BC99-19B364B38819}" name="victor"/>
+    <tableColumn id="7" xr3:uid="{94B229C8-AC9C-42C9-A7C6-9B724E4B42B8}" name="long_term" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{1C2C252A-EB30-4D3B-A519-460FE1791563}" name="location"/>
+    <tableColumn id="9" xr3:uid="{4AC2964B-6D50-4C86-BED1-3067F86DC831}" name="signif" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF172BB5-9E8E-4F37-8567-57846983F0DB}" name="Table2" displayName="Table2" ref="A1:H15" totalsRowShown="0">
+  <autoFilter ref="A1:H15" xr:uid="{AF172BB5-9E8E-4F37-8567-57846983F0DB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H15">
+    <sortCondition ref="C1:C15"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="14" xr3:uid="{03FC330F-5610-45EC-BA02-FAF04FC1D972}" name="event_id"/>
+    <tableColumn id="1" xr3:uid="{0A3AF55E-9822-4D66-A12F-617FFC408771}" name="event"/>
+    <tableColumn id="2" xr3:uid="{0656FE6F-319D-4D93-A6E6-DEB4FA508C18}" name="date" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{43F34A70-6AE5-46B3-81F7-5C0CDB3C3FD9}" name="region"/>
+    <tableColumn id="4" xr3:uid="{D5240BE9-BBFA-409F-B7B0-EDCE467BB667}" name="targetsym"/>
+    <tableColumn id="5" xr3:uid="{37A17EAF-4E34-4663-8419-084B8F1461EC}" name="targettype"/>
+    <tableColumn id="6" xr3:uid="{BC3EEC89-29C1-487F-826A-1F557E3D90E7}" name="civiliandeath"/>
+    <tableColumn id="7" xr3:uid="{334B346B-C15A-4680-A1FD-1164EB2C1A6B}" name="psycholg"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46CCFA6F-E729-4A4E-BD13-145E3210593E}" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E14" xr:uid="{46CCFA6F-E729-4A4E-BD13-145E3210593E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E14">
+    <sortCondition ref="C1:C14"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="8" xr3:uid="{49E3A9AF-527A-4E52-8B10-A86572DAB740}" name="event_id" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{DE498918-465D-485E-9B72-0F7A7466E8E9}" name="event" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{4D6CB5AB-1E0D-4B99-A1A0-8A5A9453C6B8}" name="date" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{639A4C42-D2D4-40B5-8241-150B46311B26}" name="actors" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E1C36C54-872C-410C-9623-4D829A16813C}" name="issue_type" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,255 +1001,1022 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E1" dT="2022-08-17T15:37:23.42" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{621CFEE0-D3A5-4E5E-A8B2-C4C04A89B0EF}">
+    <text>is the target of significant symbolic/cultural. yes-1 no-1;</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2022-08-17T15:36:11.14" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{61C59BE7-7C1F-460F-ACEA-1BD123B0D46A}">
+    <text>types include: shopping, schools, heatlhcare, transportation, religious/cultural, direct execution, business centers</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2022-08-17T15:42:50.14" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{6134C2F5-BA25-4B2F-AC14-563865DE21F3}">
+    <text>involves areas associated with clear presence of children (eg. schools, maternity hospital); yes-1 no-0</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E1" dT="2022-08-17T18:23:40.84" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{F7D98679-909C-41C0-A370-E6B24F27D30E}">
+    <text>issues that are the subject of the event: political (governance assistance), non-coercive diplomatic (treaties, agreements), military coercive or defensive (weapons sales, attack, buildup), coercive economic (eg. sanctions)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A9784A-9451-41E3-B346-27C5F1D7976A}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44622</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44695</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44617</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44701</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44617</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44621</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44687</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44737</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44655</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44745</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44686</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44694</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C168922-160A-4E69-999B-358F85D27A01}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44629</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>44616</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44622</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44616</v>
-      </c>
-      <c r="C3" s="3">
-        <v>44695</v>
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44636</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44636</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
-        <v>44617</v>
-      </c>
-      <c r="C4" s="3">
-        <v>44653</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44637</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44655</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44616</v>
-      </c>
-      <c r="C5" s="3">
-        <v>44701</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3">
-        <v>44617</v>
-      </c>
-      <c r="C6" s="3">
-        <v>44621</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3">
-        <v>44687</v>
-      </c>
-      <c r="C7" s="3">
-        <v>44737</v>
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <v>400</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44656</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44616</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44655</v>
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44659</v>
       </c>
       <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>52</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44687</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44689</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44701</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44716</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44737</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44745</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="C13" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44757</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44686</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44694</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44767</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DF886C-C6E7-4008-A0C8-D15657B35464}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="5">
+        <v>44614</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="5">
+        <v>44618</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="5">
+        <v>44628</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="5">
+        <v>44645</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="5">
+        <v>44649</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44679</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44735</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44739</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44741</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44741</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44743</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44743</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="5">
+        <v>44781</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/events/ukr-events.xlsx
+++ b/events/ukr-events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Sync\start\start-ukr-rus\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633EEF1F-4507-4E6D-99AD-AFBE2C20895C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FFA9C6-B12A-47CC-824E-20D41AA1AE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12645" yWindow="3915" windowWidth="28800" windowHeight="15345" xr2:uid="{A50A202F-0FC3-4522-8F72-0B317E922537}"/>
+    <workbookView xWindow="12045" yWindow="3150" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{A50A202F-0FC3-4522-8F72-0B317E922537}"/>
   </bookViews>
   <sheets>
     <sheet name="battles" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>tc={6134C2F5-BA25-4B2F-AC14-563865DE21F3}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{621CFEE0-D3A5-4E5E-A8B2-C4C04A89B0EF}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{621CFEE0-D3A5-4E5E-A8B2-C4C04A89B0EF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +52,7 @@
     is the target of significant symbolic/cultural. yes-1 no-1;</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{61C59BE7-7C1F-460F-ACEA-1BD123B0D46A}">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{61C59BE7-7C1F-460F-ACEA-1BD123B0D46A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -60,7 +60,7 @@
     types include: shopping, schools, heatlhcare, transportation, religious/cultural, direct execution, business centers</t>
       </text>
     </comment>
-    <comment ref="H1" authorId="2" shapeId="0" xr:uid="{6134C2F5-BA25-4B2F-AC14-563865DE21F3}">
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{6134C2F5-BA25-4B2F-AC14-563865DE21F3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
   <si>
     <t>start</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>Russia halts gas supply to Poland and Bulgaria</t>
+  </si>
+  <si>
+    <t>bucha</t>
   </si>
 </sst>
 </file>
@@ -670,14 +673,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF172BB5-9E8E-4F37-8567-57846983F0DB}" name="Table2" displayName="Table2" ref="A1:H15" totalsRowShown="0">
-  <autoFilter ref="A1:H15" xr:uid="{AF172BB5-9E8E-4F37-8567-57846983F0DB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H15">
-    <sortCondition ref="C1:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF172BB5-9E8E-4F37-8567-57846983F0DB}" name="Table2" displayName="Table2" ref="A1:I15" totalsRowShown="0">
+  <autoFilter ref="A1:I15" xr:uid="{AF172BB5-9E8E-4F37-8567-57846983F0DB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I15">
+    <sortCondition ref="D1:D15"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
     <tableColumn id="14" xr3:uid="{03FC330F-5610-45EC-BA02-FAF04FC1D972}" name="event_id"/>
     <tableColumn id="1" xr3:uid="{0A3AF55E-9822-4D66-A12F-617FFC408771}" name="event"/>
+    <tableColumn id="8" xr3:uid="{EF673C2A-40D7-47DA-B494-5CD1D5E4A0BB}" name="twitter_search_name"/>
     <tableColumn id="2" xr3:uid="{0656FE6F-319D-4D93-A6E6-DEB4FA508C18}" name="date" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{43F34A70-6AE5-46B3-81F7-5C0CDB3C3FD9}" name="region"/>
     <tableColumn id="4" xr3:uid="{D5240BE9-BBFA-409F-B7B0-EDCE467BB667}" name="targetsym"/>
@@ -1003,13 +1007,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E1" dT="2022-08-17T15:37:23.42" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{621CFEE0-D3A5-4E5E-A8B2-C4C04A89B0EF}">
+  <threadedComment ref="F1" dT="2022-08-17T15:37:23.42" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{621CFEE0-D3A5-4E5E-A8B2-C4C04A89B0EF}">
     <text>is the target of significant symbolic/cultural. yes-1 no-1;</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2022-08-17T15:36:11.14" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{61C59BE7-7C1F-460F-ACEA-1BD123B0D46A}">
+  <threadedComment ref="G1" dT="2022-08-17T15:36:11.14" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{61C59BE7-7C1F-460F-ACEA-1BD123B0D46A}">
     <text>types include: shopping, schools, heatlhcare, transportation, religious/cultural, direct execution, business centers</text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2022-08-17T15:42:50.14" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{6134C2F5-BA25-4B2F-AC14-563865DE21F3}">
+  <threadedComment ref="I1" dT="2022-08-17T15:42:50.14" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{6134C2F5-BA25-4B2F-AC14-563865DE21F3}">
     <text>involves areas associated with clear presence of children (eg. schools, maternity hospital); yes-1 no-0</text>
   </threadedComment>
 </ThreadedComments>
@@ -1027,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A9784A-9451-41E3-B346-27C5F1D7976A}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,24 +1343,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C168922-160A-4E69-999B-358F85D27A01}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -1364,385 +1369,391 @@
         <v>87</v>
       </c>
       <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>44629</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>44636</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>600</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>44636</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>59</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>44637</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>50</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>21</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="2">
         <v>44655</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>48</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>400</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>119</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>44656</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>44659</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>42</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>52</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>121</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>44687</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>122</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>44689</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>60</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>44701</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>124</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>44716</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>44739</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>35</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>20</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>126</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>44757</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>34</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
         <v>56</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>23</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>127</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>44767</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
         <v>48</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0</v>
       </c>
     </row>

--- a/events/ukr-events.xlsx
+++ b/events/ukr-events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Sync\start\start-ukr-rus\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FFA9C6-B12A-47CC-824E-20D41AA1AE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA03A023-FEB0-4B62-8671-6C18B38E2596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="3150" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{A50A202F-0FC3-4522-8F72-0B317E922537}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{A50A202F-0FC3-4522-8F72-0B317E922537}"/>
   </bookViews>
   <sheets>
     <sheet name="battles" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>tc={6134C2F5-BA25-4B2F-AC14-563865DE21F3}</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{621CFEE0-D3A5-4E5E-A8B2-C4C04A89B0EF}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{621CFEE0-D3A5-4E5E-A8B2-C4C04A89B0EF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +52,7 @@
     is the target of significant symbolic/cultural. yes-1 no-1;</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{61C59BE7-7C1F-460F-ACEA-1BD123B0D46A}">
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{61C59BE7-7C1F-460F-ACEA-1BD123B0D46A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -60,7 +60,7 @@
     types include: shopping, schools, heatlhcare, transportation, religious/cultural, direct execution, business centers</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{6134C2F5-BA25-4B2F-AC14-563865DE21F3}">
+    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{6134C2F5-BA25-4B2F-AC14-563865DE21F3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,7 +78,7 @@
     <author>tc={F7D98679-909C-41C0-A370-E6B24F27D30E}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F7D98679-909C-41C0-A370-E6B24F27D30E}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F7D98679-909C-41C0-A370-E6B24F27D30E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="146">
   <si>
     <t>start</t>
   </si>
@@ -525,6 +525,12 @@
   </si>
   <si>
     <t>bucha</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>nato; finland; sweden</t>
   </si>
 </sst>
 </file>
@@ -594,7 +600,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -659,30 +675,31 @@
   <autoFilter ref="A1:I10" xr:uid="{F2A5DE2E-43BD-4601-AEAD-3ED6C0103664}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EAC9E920-2422-44B9-AC31-76AF0BE80A5E}" name="event_id"/>
-    <tableColumn id="2" xr3:uid="{42E8934A-9419-45D5-BFCD-CC2DCB0AEA0D}" name="event" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{20A1F777-84D4-4FD3-84B9-D5EB3C5ED8F0}" name="twitter_search_name" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{826DCC08-31DC-46D2-9186-088C93D9BE2B}" name="start" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{020A6BF6-313D-421C-B3C4-17DEFEE8916E}" name="end" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{42E8934A-9419-45D5-BFCD-CC2DCB0AEA0D}" name="event" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{20A1F777-84D4-4FD3-84B9-D5EB3C5ED8F0}" name="twitter_search_name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{826DCC08-31DC-46D2-9186-088C93D9BE2B}" name="start" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{020A6BF6-313D-421C-B3C4-17DEFEE8916E}" name="end" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{2AB33A6D-48F3-41E1-BC99-19B364B38819}" name="victor"/>
-    <tableColumn id="7" xr3:uid="{94B229C8-AC9C-42C9-A7C6-9B724E4B42B8}" name="long_term" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{94B229C8-AC9C-42C9-A7C6-9B724E4B42B8}" name="long_term" dataDxfId="11"/>
     <tableColumn id="8" xr3:uid="{1C2C252A-EB30-4D3B-A519-460FE1791563}" name="location"/>
-    <tableColumn id="9" xr3:uid="{4AC2964B-6D50-4C86-BED1-3067F86DC831}" name="signif" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{4AC2964B-6D50-4C86-BED1-3067F86DC831}" name="signif" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF172BB5-9E8E-4F37-8567-57846983F0DB}" name="Table2" displayName="Table2" ref="A1:I15" totalsRowShown="0">
-  <autoFilter ref="A1:I15" xr:uid="{AF172BB5-9E8E-4F37-8567-57846983F0DB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF172BB5-9E8E-4F37-8567-57846983F0DB}" name="Table2" displayName="Table2" ref="A1:J15" totalsRowShown="0">
+  <autoFilter ref="A1:J15" xr:uid="{AF172BB5-9E8E-4F37-8567-57846983F0DB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J15">
     <sortCondition ref="D1:D15"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="10">
     <tableColumn id="14" xr3:uid="{03FC330F-5610-45EC-BA02-FAF04FC1D972}" name="event_id"/>
     <tableColumn id="1" xr3:uid="{0A3AF55E-9822-4D66-A12F-617FFC408771}" name="event"/>
     <tableColumn id="8" xr3:uid="{EF673C2A-40D7-47DA-B494-5CD1D5E4A0BB}" name="twitter_search_name"/>
-    <tableColumn id="2" xr3:uid="{0656FE6F-319D-4D93-A6E6-DEB4FA508C18}" name="date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0656FE6F-319D-4D93-A6E6-DEB4FA508C18}" name="date" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{7201E182-1AF5-4C0C-991D-BB119F15BB79}" name="start" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{43F34A70-6AE5-46B3-81F7-5C0CDB3C3FD9}" name="region"/>
     <tableColumn id="4" xr3:uid="{D5240BE9-BBFA-409F-B7B0-EDCE467BB667}" name="targetsym"/>
     <tableColumn id="5" xr3:uid="{37A17EAF-4E34-4663-8419-084B8F1461EC}" name="targettype"/>
@@ -694,17 +711,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46CCFA6F-E729-4A4E-BD13-145E3210593E}" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E14" xr:uid="{46CCFA6F-E729-4A4E-BD13-145E3210593E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46CCFA6F-E729-4A4E-BD13-145E3210593E}" name="Table1" displayName="Table1" ref="A1:G14" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:G14" xr:uid="{46CCFA6F-E729-4A4E-BD13-145E3210593E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F14">
     <sortCondition ref="C1:C14"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="8" xr3:uid="{49E3A9AF-527A-4E52-8B10-A86572DAB740}" name="event_id" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{DE498918-465D-485E-9B72-0F7A7466E8E9}" name="event" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4D6CB5AB-1E0D-4B99-A1A0-8A5A9453C6B8}" name="date" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{639A4C42-D2D4-40B5-8241-150B46311B26}" name="actors" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{E1C36C54-872C-410C-9623-4D829A16813C}" name="issue_type" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="8" xr3:uid="{49E3A9AF-527A-4E52-8B10-A86572DAB740}" name="event_id" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{DE498918-465D-485E-9B72-0F7A7466E8E9}" name="event" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{4D6CB5AB-1E0D-4B99-A1A0-8A5A9453C6B8}" name="date" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{0CC77B38-3BB7-4329-8329-C4700599E5F8}" name="start" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{639A4C42-D2D4-40B5-8241-150B46311B26}" name="actors" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E1C36C54-872C-410C-9623-4D829A16813C}" name="issue_type" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{F71E8A97-5B2B-4DA4-A4EA-7FC528F40448}" name="keywords" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1007,13 +1026,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F1" dT="2022-08-17T15:37:23.42" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{621CFEE0-D3A5-4E5E-A8B2-C4C04A89B0EF}">
+  <threadedComment ref="G1" dT="2022-08-17T15:37:23.42" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{621CFEE0-D3A5-4E5E-A8B2-C4C04A89B0EF}">
     <text>is the target of significant symbolic/cultural. yes-1 no-1;</text>
   </threadedComment>
-  <threadedComment ref="G1" dT="2022-08-17T15:36:11.14" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{61C59BE7-7C1F-460F-ACEA-1BD123B0D46A}">
+  <threadedComment ref="H1" dT="2022-08-17T15:36:11.14" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{61C59BE7-7C1F-460F-ACEA-1BD123B0D46A}">
     <text>types include: shopping, schools, heatlhcare, transportation, religious/cultural, direct execution, business centers</text>
   </threadedComment>
-  <threadedComment ref="I1" dT="2022-08-17T15:42:50.14" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{6134C2F5-BA25-4B2F-AC14-563865DE21F3}">
+  <threadedComment ref="J1" dT="2022-08-17T15:42:50.14" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{6134C2F5-BA25-4B2F-AC14-563865DE21F3}">
     <text>involves areas associated with clear presence of children (eg. schools, maternity hospital); yes-1 no-0</text>
   </threadedComment>
 </ThreadedComments>
@@ -1021,7 +1040,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E1" dT="2022-08-17T18:23:40.84" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{F7D98679-909C-41C0-A370-E6B24F27D30E}">
+  <threadedComment ref="F1" dT="2022-08-17T18:23:40.84" personId="{F9F7E123-0D76-4A5C-BFC9-47253510B946}" id="{F7D98679-909C-41C0-A370-E6B24F27D30E}">
     <text>issues that are the subject of the event: political (governance assistance), non-coercive diplomatic (treaties, agreements), military coercive or defensive (weapons sales, attack, buildup), coercive economic (eg. sanctions)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1343,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C168922-160A-4E69-999B-358F85D27A01}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1380,7 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -1375,22 +1394,25 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -1400,23 +1422,26 @@
       <c r="D2" s="2">
         <v>44629</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2">
+        <v>44629</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -1426,23 +1451,26 @@
       <c r="D3" s="2">
         <v>44636</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2">
+        <v>44636</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>600</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -1452,23 +1480,26 @@
       <c r="D4" s="2">
         <v>44636</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2">
+        <v>44636</v>
+      </c>
+      <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -1478,23 +1509,26 @@
       <c r="D5" s="2">
         <v>44637</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2">
+        <v>44637</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>50</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>21</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -1507,23 +1541,26 @@
       <c r="D6" s="2">
         <v>44655</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2">
+        <v>44655</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>48</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>400</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -1533,23 +1570,26 @@
       <c r="D7" s="2">
         <v>44656</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2">
+        <v>44656</v>
+      </c>
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -1559,23 +1599,26 @@
       <c r="D8" s="2">
         <v>44659</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2">
+        <v>44659</v>
+      </c>
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>52</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -1585,23 +1628,26 @@
       <c r="D9" s="2">
         <v>44687</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2">
+        <v>44687</v>
+      </c>
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -1611,23 +1657,26 @@
       <c r="D10" s="2">
         <v>44689</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2">
+        <v>44689</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>50</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>60</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -1637,23 +1686,26 @@
       <c r="D11" s="2">
         <v>44701</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2">
+        <v>44701</v>
+      </c>
+      <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -1663,23 +1715,26 @@
       <c r="D12" s="2">
         <v>44716</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2">
+        <v>44716</v>
+      </c>
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -1689,23 +1744,26 @@
       <c r="D13" s="2">
         <v>44739</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2">
+        <v>44739</v>
+      </c>
+      <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
         <v>35</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>20</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -1715,23 +1773,26 @@
       <c r="D14" s="2">
         <v>44757</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2">
+        <v>44757</v>
+      </c>
+      <c r="F14" t="s">
         <v>34</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>56</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>23</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -1741,19 +1802,22 @@
       <c r="D15" s="2">
         <v>44767</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2">
+        <v>44767</v>
+      </c>
+      <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>48</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0</v>
       </c>
     </row>
@@ -1769,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DF886C-C6E7-4008-A0C8-D15657B35464}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,9 +1846,10 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -1795,13 +1860,19 @@
         <v>39</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>128</v>
       </c>
@@ -1811,14 +1882,18 @@
       <c r="C2" s="5">
         <v>44614</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5">
+        <v>44614</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>129</v>
       </c>
@@ -1828,14 +1903,18 @@
       <c r="C3" s="5">
         <v>44618</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5">
+        <v>44618</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
@@ -1845,14 +1924,18 @@
       <c r="C4" s="5">
         <v>44628</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5">
+        <v>44628</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>131</v>
       </c>
@@ -1862,14 +1945,18 @@
       <c r="C5" s="5">
         <v>44645</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5">
+        <v>44645</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>132</v>
       </c>
@@ -1879,14 +1966,18 @@
       <c r="C6" s="5">
         <v>44649</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5">
+        <v>44649</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>133</v>
       </c>
@@ -1896,14 +1987,18 @@
       <c r="C7" s="5">
         <v>44679</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5">
+        <v>44679</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>134</v>
       </c>
@@ -1913,14 +2008,18 @@
       <c r="C8" s="5">
         <v>44735</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5">
+        <v>44735</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>135</v>
       </c>
@@ -1930,14 +2029,18 @@
       <c r="C9" s="5">
         <v>44739</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5">
+        <v>44739</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>136</v>
       </c>
@@ -1947,14 +2050,20 @@
       <c r="C10" s="5">
         <v>44741</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5">
+        <v>44741</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>137</v>
       </c>
@@ -1964,14 +2073,18 @@
       <c r="C11" s="5">
         <v>44741</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5">
+        <v>44741</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>138</v>
       </c>
@@ -1981,14 +2094,18 @@
       <c r="C12" s="5">
         <v>44743</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5">
+        <v>44743</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>139</v>
       </c>
@@ -1998,14 +2115,18 @@
       <c r="C13" s="5">
         <v>44743</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5">
+        <v>44743</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>140</v>
       </c>
@@ -2015,12 +2136,16 @@
       <c r="C14" s="5">
         <v>44781</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5">
+        <v>44781</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
